--- a/documetos/ODI – Projeto Energral (Checklist Digital – Python + Excel + PDF + Foto).xlsx
+++ b/documetos/ODI – Projeto Energral (Checklist Digital – Python + Excel + PDF + Foto).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A76B3E-0212-4E7F-94A0-DABAB31A2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F838F51-0A55-48FA-BAAF-BAA4D5438535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="14" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -86,284 +86,120 @@
   </si>
   <si>
     <t>Client: Energral S.A.
-Developers: Equipe do Bootcamp
-Architect: [NOME DO ARQUITETO]
-Description: Checklist digital via app Python (Tkinter), com exportação automática para Excel e PDF, além de anexos de fotos.</t>
-  </si>
-  <si>
-    <t>Abrir formulário</t>
-  </si>
-  <si>
-    <t>Preencher formulário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Selecionar foto incidente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coletar dados	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Escrever no Excel</t>
-  </si>
-  <si>
-    <t>Gerar PDF do checklist</t>
-  </si>
-  <si>
-    <t>Confirmar envio visual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Armazenar anexos</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>Hrs</t>
-  </si>
-  <si>
-    <t>Executar script Python com Tkinter</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Script </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>checklist_app.py</t>
-    </r>
-  </si>
-  <si>
-    <t>Interface gráfica com scroll</t>
+Developers: Bootcamp Team
+Architect:  
+Description: Digital checklist via Python app (Tkinter), with automatic export to Excel and PDF, including photo attachments.</t>
+  </si>
+  <si>
+    <t>Open form</t>
+  </si>
+  <si>
+    <t>Fill out form</t>
+  </si>
+  <si>
+    <t>Select incident photo</t>
+  </si>
+  <si>
+    <t>Collect data</t>
+  </si>
+  <si>
+    <t>Write to Excel</t>
+  </si>
+  <si>
+    <t>Generate PDF checklist</t>
+  </si>
+  <si>
+    <t>Confirm visual output</t>
+  </si>
+  <si>
+    <t>Store attachments</t>
+  </si>
+  <si>
+    <t>Script 'checklist_app.py'</t>
+  </si>
+  <si>
+    <t>Technician input + use interaction</t>
+  </si>
+  <si>
+    <t>Selected image path</t>
+  </si>
+  <si>
+    <t>Tkinter widgets and variables</t>
+  </si>
+  <si>
+    <t>openpyxl', 'pandas', path and data</t>
+  </si>
+  <si>
+    <t>Dictionary of collected data</t>
+  </si>
+  <si>
+    <t>Status of previous steps</t>
+  </si>
+  <si>
+    <t>Local paths of generated files</t>
+  </si>
+  <si>
+    <t>Graphical interface with scroll</t>
+  </si>
+  <si>
+    <t>Data stored in memory</t>
+  </si>
+  <si>
+    <t>File copied to 'anexos_checklist/' folder</t>
+  </si>
+  <si>
+    <t>Dictionary with all input data</t>
+  </si>
+  <si>
+    <t>Updated '.xlsx' spreadsheet</t>
+  </si>
+  <si>
+    <t>Generated '.pdf' file with complete layout</t>
+  </si>
+  <si>
+    <t>Messagebox feedback</t>
+  </si>
+  <si>
+    <t>List of attachments stored internally</t>
+  </si>
+  <si>
+    <t>Hours</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>Interface funciona offline</t>
-  </si>
-  <si>
-    <t>Inserir dados: visita, segurança, equipamentos, incidentes e observações</t>
-  </si>
-  <si>
-    <t>Dados técnicos + interação do técnico</t>
-  </si>
-  <si>
-    <t>Dados armazenados em memória</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>Auto-preenche data/hora e tem validação básica</t>
-  </si>
-  <si>
-    <t>Abrir explorador de arquivos e copiar foto para pasta local</t>
-  </si>
-  <si>
-    <t>Caminho da imagem selecionada</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caminho copiado em </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>anexos_checklist/</t>
-    </r>
-  </si>
-  <si>
-    <t>Nome do arquivo é renomeado com timestamp</t>
-  </si>
-  <si>
-    <t>Capturar todos os campos preenchidos em um dicionário estruturado</t>
-  </si>
-  <si>
-    <t>Widgets e variáveis Tkinter</t>
-  </si>
-  <si>
-    <t>Dicionário com todos os dados</t>
-  </si>
-  <si>
-    <t>Usado em múltiplas saídas (Excel, PDF, etc.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verificar existência do </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, abrir ou criar, adicionar nova linha com os dados</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>openpyxl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>pandas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, caminho e dados</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Planilha </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> atualizada</t>
-    </r>
-  </si>
-  <si>
-    <t>Cria cabeçalhos e concatena caso já exista</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Criar layout com </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>fpdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, adicionar seções e salvar em arquivo</t>
-    </r>
-  </si>
-  <si>
-    <t>Dicionário dos dados coletados</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Arquivo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> gerado com estrutura completa</t>
-    </r>
-  </si>
-  <si>
-    <t>PDF padronizado com todos os campos</t>
-  </si>
-  <si>
-    <t>Exibir mensagens para o usuário com resultados de cada etapa</t>
-  </si>
-  <si>
-    <t>Sucesso/erro das etapas anteriores</t>
-  </si>
-  <si>
-    <t>Caixa de diálogo (messagebox)</t>
-  </si>
-  <si>
     <t>0.2</t>
   </si>
   <si>
-    <t>Feedback completo com erros e confirmações</t>
-  </si>
-  <si>
-    <t>Adicionar Excel, PDF e imagem à lista de anexos (usado para possível envio posterior)</t>
-  </si>
-  <si>
-    <t>Caminhos locais dos arquivos gerados</t>
-  </si>
-  <si>
-    <t>Lista de anexos armazenada internamente</t>
-  </si>
-  <si>
     <t>0.3</t>
   </si>
   <si>
-    <t>Preparado para futura função de envio por e-mail</t>
+    <t>Interface works offline</t>
+  </si>
+  <si>
+    <t>Auto-fills date/time and includes basic validation</t>
+  </si>
+  <si>
+    <t>File renamed with timestamp</t>
+  </si>
+  <si>
+    <t>Used for multiple outputs (Excel, PDF, etc.)</t>
+  </si>
+  <si>
+    <t>Adds headers and appends data if file exists</t>
+  </si>
+  <si>
+    <t>Standardized PDF with all fields</t>
+  </si>
+  <si>
+    <t>Full user feedbacl with confirmations and errors</t>
+  </si>
+  <si>
+    <t>Prepared for future email sending funciton</t>
   </si>
 </sst>
 </file>
@@ -416,10 +252,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -442,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -536,12 +374,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -549,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -569,25 +449,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -618,15 +479,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,53 +820,53 @@
     <row r="3" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="17" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1010,10 +896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A61CF1C-A710-46A5-8DE3-D94039051F46}">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,17 +907,15 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" customWidth="1"/>
-    <col min="11" max="11" width="47" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" customWidth="1"/>
+    <col min="10" max="10" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1042,320 +926,305 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="26"/>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="26"/>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="2:8" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="2:8" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="2:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:8" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="2:8" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="2:8" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="2:8" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="2:8" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="2:8" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="2:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B11:H22"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11" xr:uid="{BB2F4139-652B-45DB-B18C-A294235A3EF0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23" xr:uid="{BB2F4139-652B-45DB-B18C-A294235A3EF0}">
       <formula1>"Done,Update,Create,Approve"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:H11" xr:uid="{0A58A50C-E9F2-4834-A50E-565B5161D708}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23" xr:uid="{0A58A50C-E9F2-4834-A50E-565B5161D708}">
       <formula1>"H,M,L"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1368,6 +1237,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E11B9C69E1A5704F96A243427E5D9D5B" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="276b5ada50bad4d41ffed8a633618e7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9d92bb8e-c3ee-49e6-9dbb-aaa8bacc3a48" xmlns:ns3="a16dbadb-8cb8-4cb4-b020-5fa93411597c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1f26a9eadbc9188425da5da5a11cf7b" ns2:_="" ns3:_="">
     <xsd:import namespace="9d92bb8e-c3ee-49e6-9dbb-aaa8bacc3a48"/>
@@ -1610,15 +1488,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1631,6 +1500,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B77D10-CB29-4CE6-B2C7-A2300F9906E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B7607E7-6BBB-40CB-85D2-31482D610A43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1645,14 +1522,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B77D10-CB29-4CE6-B2C7-A2300F9906E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
